--- a/data/trans_dic/P13A_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.01763187112739617</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.05260120590331481</v>
+        <v>0.05260120590331482</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.03811385574433115</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009337553231324788</v>
+        <v>0.01016044158047212</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04225026662717312</v>
+        <v>0.04039959265820599</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03034882946373633</v>
+        <v>0.03008790570903844</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0302098688654871</v>
+        <v>0.03062958595132469</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06558646588667282</v>
+        <v>0.06504797127379716</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04737859518442127</v>
+        <v>0.04833391736456125</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.04053095047878807</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.02623473798139343</v>
+        <v>0.02623473798139344</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008042778270861419</v>
+        <v>0.007758979156544361</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03339356592907578</v>
+        <v>0.03307456469236534</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02245921167059007</v>
+        <v>0.02162374170876985</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0170572818673878</v>
+        <v>0.01799685660930666</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04941946904487943</v>
+        <v>0.04963565722396641</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03184984341643997</v>
+        <v>0.03092602258827572</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.003356250921572953</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.03256909524178264</v>
+        <v>0.03256909524178265</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.01817954028114731</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02098760979730776</v>
+        <v>0.02212903280200702</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01208548251203658</v>
+        <v>0.01210590091226691</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01149596541340769</v>
+        <v>0.01199387517246934</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0482401447158542</v>
+        <v>0.04843293880483525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02661707553602556</v>
+        <v>0.02562698229357187</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.01137614992353945</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04161858336266573</v>
+        <v>0.04161858336266574</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.02692078063531701</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00802217356084662</v>
+        <v>0.008240624406510206</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03614829078736839</v>
+        <v>0.03577341083482388</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02334829418800583</v>
+        <v>0.02356693756385026</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01578137906432545</v>
+        <v>0.01546711676056011</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04750903145992187</v>
+        <v>0.0479843774131288</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03081826374504024</v>
+        <v>0.03094615000562698</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5399</v>
+        <v>5875</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>34537</v>
+        <v>33024</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>42355</v>
+        <v>41991</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17467</v>
+        <v>17710</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>53612</v>
+        <v>53172</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>66122</v>
+        <v>67456</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>17846</v>
+        <v>17216</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>72141</v>
+        <v>71452</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>98354</v>
+        <v>94695</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37848</v>
+        <v>39933</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>106763</v>
+        <v>107230</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>139478</v>
+        <v>135432</v>
       </c>
     </row>
     <row r="12">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15371</v>
+        <v>16207</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17444</v>
+        <v>17473</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8173</v>
+        <v>8527</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35331</v>
+        <v>35473</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>38419</v>
+        <v>36989</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>28142</v>
+        <v>28909</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>134116</v>
+        <v>132726</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>168533</v>
+        <v>170112</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>55362</v>
+        <v>54259</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>176267</v>
+        <v>178030</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>222453</v>
+        <v>223376</v>
       </c>
     </row>
     <row r="20">
